--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F398F46-B457-B548-A580-6F1A59BDBFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA898C52-E0B0-6846-8C33-3D089A69C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2040" yWindow="-21100" windowWidth="22420" windowHeight="21100" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
+    <workbookView xWindow="-2040" yWindow="-20600" windowWidth="27060" windowHeight="21100" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>ui相关配置</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Alpha</t>
   </si>
 </sst>
 </file>
@@ -611,8 +620,8 @@
   <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:A113"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3948,7 +3957,45 @@
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="97" spans="1:17">
+      <c r="D97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="3" t="s">
         <v>48</v>
       </c>
@@ -3958,14 +4005,14 @@
       <c r="D98" s="1">
         <v>2</v>
       </c>
-      <c r="E98" s="1">
+      <c r="I98" s="1">
         <v>7</v>
       </c>
-      <c r="F98" s="1">
+      <c r="N98" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:17">
       <c r="A99" s="3"/>
       <c r="C99" s="1" t="s">
         <v>13</v>
@@ -3973,14 +4020,14 @@
       <c r="D99" s="1">
         <v>6</v>
       </c>
-      <c r="E99" s="1">
+      <c r="I99" s="1">
         <v>10</v>
       </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>49</v>
@@ -3989,84 +4036,84 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:17">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:17">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:17">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:17">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:17">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:17">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:17">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:17">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:17">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:17">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:17">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:17">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A4D19-F136-E14C-80A3-1E62C38E850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B36D1-A487-4D40-B490-B6F11F1FB2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
@@ -874,8 +874,8 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1041,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>1628665200</v>
+        <v>1628838000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>71</v>
@@ -1052,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>1628676000</v>
+        <v>1629097200</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>72</v>
@@ -1063,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>1628676000</v>
+        <v>1628492400</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>70</v>
@@ -5000,7 +5000,7 @@
         <v>108</v>
       </c>
       <c r="E144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5">

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B36D1-A487-4D40-B490-B6F11F1FB2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B6A96-6097-3F47-BFA7-6FE6410EE8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
+    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,36 +527,36 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +874,8 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -980,37 +980,37 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
@@ -1074,2261 +1074,2261 @@
         <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>600</v>
+        <v>86400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>6</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="6">
         <v>7</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="6">
         <v>10</v>
       </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="13" t="s">
+      <c r="T14" s="6"/>
+      <c r="U14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="8">
         <v>11</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13"/>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="11" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="14" t="s">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14" t="s">
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="10" t="s">
+      <c r="O16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="13" t="s">
+      <c r="T16" s="6"/>
+      <c r="U16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="W16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="X16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="13" t="s">
+      <c r="Y16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="13" t="s">
+      <c r="AA16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AB16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AC16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AD16" s="15"/>
+      <c r="AD16" s="9"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
         <v>80</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
         <v>182</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
         <v>80</v>
       </c>
-      <c r="N17" s="10">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <v>5</v>
-      </c>
-      <c r="P17" s="10">
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6">
         <v>182</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="6">
         <v>2</v>
       </c>
-      <c r="R17" s="10">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
-      <c r="T17" s="12" t="s">
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
         <v>80</v>
       </c>
-      <c r="X17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="13">
+      <c r="X17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="8">
         <v>182</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="8">
         <v>2</v>
       </c>
-      <c r="AB17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>80</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>170</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
         <v>183</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="6">
         <v>2</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="6">
         <v>80</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="6">
         <v>170</v>
       </c>
-      <c r="N18" s="10">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <v>5</v>
-      </c>
-      <c r="P18" s="10">
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>5</v>
+      </c>
+      <c r="P18" s="6">
         <v>183</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="6">
         <v>3</v>
       </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="12" t="s">
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="8">
         <v>2</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="8">
         <v>80</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="8">
         <v>170</v>
       </c>
-      <c r="X18" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="13">
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="8">
         <v>183</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="8">
         <v>3</v>
       </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="15" t="s">
+      <c r="AB18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>170</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>270</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
         <v>195</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="6">
         <v>3</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="6">
         <v>170</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="6">
         <v>270</v>
       </c>
-      <c r="N19" s="10">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <v>5</v>
-      </c>
-      <c r="P19" s="10">
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>5</v>
+      </c>
+      <c r="P19" s="6">
         <v>195</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="6">
         <v>4</v>
       </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="12" t="s">
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="8">
         <v>3</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="8">
         <v>170</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="8">
         <v>270</v>
       </c>
-      <c r="X19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="13">
+      <c r="X19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="8">
         <v>195</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="8">
         <v>4</v>
       </c>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="15" t="s">
+      <c r="AB19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>270</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>360</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
         <v>300</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="6">
         <v>4</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="6">
         <v>270</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="6">
         <v>360</v>
       </c>
-      <c r="N20" s="10">
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
         <v>2</v>
       </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
         <v>300</v>
       </c>
-      <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0</v>
-      </c>
-      <c r="T20" s="12" t="s">
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="8">
         <v>4</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="8">
         <v>270</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="8">
         <v>360</v>
       </c>
-      <c r="X20" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="13">
+      <c r="X20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="8">
         <v>2</v>
       </c>
-      <c r="Z20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="13">
+      <c r="Z20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="8">
         <v>300</v>
       </c>
-      <c r="AB20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="15" t="s">
+      <c r="AB20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
         <v>360</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>480</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>6</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>7</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>3</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="10">
-        <v>5</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="K21" s="6">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6">
         <v>360</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="6">
         <v>480</v>
       </c>
-      <c r="N21" s="10">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
         <v>4</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="6">
         <v>31</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="6">
         <v>10</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="6">
         <v>3</v>
       </c>
-      <c r="S21" s="10">
-        <v>0</v>
-      </c>
-      <c r="T21" s="12" t="s">
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U21" s="13">
-        <v>5</v>
-      </c>
-      <c r="V21" s="13">
+      <c r="U21" s="8">
+        <v>5</v>
+      </c>
+      <c r="V21" s="8">
         <v>360</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="8">
         <v>480</v>
       </c>
-      <c r="X21" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="13">
+      <c r="X21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="8">
         <v>4</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="8">
         <v>31</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="8">
         <v>10</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="8">
         <v>3</v>
       </c>
-      <c r="AC21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="15" t="s">
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>480</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>630</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>5</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
         <v>195</v>
       </c>
-      <c r="G22" s="7">
-        <v>5</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="6">
         <v>6</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="6">
         <v>480</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="6">
         <v>630</v>
       </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <v>5</v>
-      </c>
-      <c r="P22" s="10">
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5</v>
+      </c>
+      <c r="P22" s="6">
         <v>195</v>
       </c>
-      <c r="Q22" s="10">
-        <v>5</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0</v>
-      </c>
-      <c r="T22" s="12" t="s">
+      <c r="Q22" s="6">
+        <v>5</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="8">
         <v>6</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="8">
         <v>480</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="8">
         <v>630</v>
       </c>
-      <c r="X22" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="13">
+      <c r="X22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="8">
         <v>195</v>
       </c>
-      <c r="AA22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="15" t="s">
+      <c r="AA22" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>630</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>750</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <v>400</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="6">
         <v>7</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="6">
         <v>630</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="6">
         <v>750</v>
       </c>
-      <c r="N23" s="10">
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
         <v>2</v>
       </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
         <v>400</v>
       </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
-      <c r="T23" s="12" t="s">
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="8">
         <v>7</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="8">
         <v>630</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="8">
         <v>750</v>
       </c>
-      <c r="X23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="13">
+      <c r="X23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="8">
         <v>2</v>
       </c>
-      <c r="Z23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="13">
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8">
         <v>400</v>
       </c>
-      <c r="AB23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="15" t="s">
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>750</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>930</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>6</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>7</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="6">
         <v>8</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="6">
         <v>750</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="6">
         <v>930</v>
       </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
         <v>4</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="6">
         <v>26</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="6">
         <v>12</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="6">
         <v>3</v>
       </c>
-      <c r="S24" s="10">
-        <v>0</v>
-      </c>
-      <c r="T24" s="12" t="s">
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="8">
         <v>8</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="8">
         <v>750</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="8">
         <v>930</v>
       </c>
-      <c r="X24" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="13">
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8">
         <v>4</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="8">
         <v>55</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="8">
         <v>12</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="8">
         <v>3</v>
       </c>
-      <c r="AC24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="15" t="s">
+      <c r="AC24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>930</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>1170</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
         <v>195</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="6">
         <v>9</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="6">
         <v>930</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="6">
         <v>1170</v>
       </c>
-      <c r="N25" s="10">
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <v>5</v>
-      </c>
-      <c r="P25" s="10">
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>5</v>
+      </c>
+      <c r="P25" s="6">
         <v>195</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="6">
         <v>6</v>
       </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0</v>
-      </c>
-      <c r="T25" s="12" t="s">
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="8">
         <v>9</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="8">
         <v>930</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="8">
         <v>1170</v>
       </c>
-      <c r="X25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="13">
+      <c r="X25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="8">
         <v>195</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="8">
         <v>6</v>
       </c>
-      <c r="AB25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="15" t="s">
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>1170</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>1350</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
         <v>500</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="6">
         <v>10</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="6">
         <v>1170</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="6">
         <v>1350</v>
       </c>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
         <v>2</v>
       </c>
-      <c r="P26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
         <v>500</v>
       </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <v>0</v>
-      </c>
-      <c r="T26" s="12" t="s">
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="8">
         <v>10</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="8">
         <v>1170</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="8">
         <v>1350</v>
       </c>
-      <c r="X26" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="13">
+      <c r="X26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="8">
         <v>2</v>
       </c>
-      <c r="Z26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="13">
+      <c r="Z26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="8">
         <v>500</v>
       </c>
-      <c r="AB26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="15" t="s">
+      <c r="AB26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>1350</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>1610</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
         <v>6</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
         <v>7</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="6">
         <v>11</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="6">
         <v>1350</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="6">
         <v>1610</v>
       </c>
-      <c r="N27" s="10">
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
         <v>4</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="6">
         <v>31</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="6">
         <v>14</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="6">
         <v>3</v>
       </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
-      <c r="T27" s="12" t="s">
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="8">
         <v>11</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="8">
         <v>1350</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="8">
         <v>1610</v>
       </c>
-      <c r="X27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="13">
+      <c r="X27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="8">
         <v>4</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="Z27" s="8">
         <v>31</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="8">
         <v>14</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="8">
         <v>3</v>
       </c>
-      <c r="AC27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="15" t="s">
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>1610</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>1950</v>
       </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
         <v>195</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>7</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="6">
         <v>12</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="6">
         <v>1610</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="6">
         <v>1950</v>
       </c>
-      <c r="N28" s="10">
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <v>5</v>
-      </c>
-      <c r="P28" s="10">
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>5</v>
+      </c>
+      <c r="P28" s="6">
         <v>195</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="6">
         <v>7</v>
       </c>
-      <c r="R28" s="10">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
-        <v>0</v>
-      </c>
-      <c r="T28" s="12" t="s">
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="8">
         <v>12</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="8">
         <v>1610</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="8">
         <v>1950</v>
       </c>
-      <c r="X28" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="13">
+      <c r="X28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="8">
         <v>195</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="8">
         <v>7</v>
       </c>
-      <c r="AB28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="15" t="s">
+      <c r="AB28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>1950</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>2210</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
         <v>6</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="6">
         <v>13</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="6">
         <v>1950</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="6">
         <v>2210</v>
       </c>
-      <c r="N29" s="10">
-        <v>1</v>
-      </c>
-      <c r="O29" s="10">
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
         <v>6</v>
       </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>1</v>
-      </c>
-      <c r="R29" s="10">
-        <v>5</v>
-      </c>
-      <c r="S29" s="10">
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>5</v>
+      </c>
+      <c r="S29" s="6">
         <v>3</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="8">
         <v>13</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="8">
         <v>1950</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="8">
         <v>2210</v>
       </c>
-      <c r="X29" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="13">
+      <c r="X29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="8">
         <v>6</v>
       </c>
-      <c r="Z29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="13">
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="8">
         <v>3</v>
       </c>
-      <c r="AD29" s="15" t="s">
+      <c r="AD29" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>2210</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>2590</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>5</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4">
         <v>195</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>8</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="6">
         <v>14</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="6">
         <v>2210</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="6">
         <v>2590</v>
       </c>
-      <c r="N30" s="10">
-        <v>1</v>
-      </c>
-      <c r="O30" s="10">
-        <v>5</v>
-      </c>
-      <c r="P30" s="10">
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>5</v>
+      </c>
+      <c r="P30" s="6">
         <v>195</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="6">
         <v>8</v>
       </c>
-      <c r="R30" s="10">
-        <v>0</v>
-      </c>
-      <c r="S30" s="10">
-        <v>0</v>
-      </c>
-      <c r="T30" s="12" t="s">
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="8">
         <v>14</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="8">
         <v>2210</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="8">
         <v>2590</v>
       </c>
-      <c r="X30" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="13">
+      <c r="X30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="8">
         <v>195</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="8">
         <v>8</v>
       </c>
-      <c r="AB30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="15" t="s">
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>15</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>2590</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>3090</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
         <v>10000</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="6">
         <v>15</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="6">
         <v>2590</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="6">
         <v>3090</v>
       </c>
-      <c r="N31" s="10">
-        <v>1</v>
-      </c>
-      <c r="O31" s="10">
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
         <v>3</v>
       </c>
-      <c r="P31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10">
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
         <v>10000</v>
       </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0</v>
-      </c>
-      <c r="T31" s="12" t="s">
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="8">
         <v>15</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="8">
         <v>2590</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="8">
         <v>3090</v>
       </c>
-      <c r="X31" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="13">
+      <c r="X31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="8">
         <v>3</v>
       </c>
-      <c r="Z31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="13">
+      <c r="Z31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
         <v>10000</v>
       </c>
-      <c r="AB31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="15" t="s">
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>16</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>3090</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>3470</v>
       </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
         <v>6</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
         <v>3</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="6">
         <v>16</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="6">
         <v>3090</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="6">
         <v>3470</v>
       </c>
-      <c r="N32" s="10">
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
         <v>6</v>
       </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>1</v>
-      </c>
-      <c r="R32" s="10">
-        <v>5</v>
-      </c>
-      <c r="S32" s="10">
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6">
+        <v>5</v>
+      </c>
+      <c r="S32" s="6">
         <v>3</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="T32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="8">
         <v>16</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="8">
         <v>3090</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="8">
         <v>3470</v>
       </c>
-      <c r="X32" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="13">
+      <c r="X32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="8">
         <v>6</v>
       </c>
-      <c r="Z32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="13">
+      <c r="Z32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="8">
         <v>3</v>
       </c>
-      <c r="AD32" s="15" t="s">
+      <c r="AD32" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>3470</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>4010</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
         <v>195</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <v>9</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="6">
         <v>17</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="6">
         <v>3470</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="6">
         <v>4010</v>
       </c>
-      <c r="N33" s="10">
-        <v>1</v>
-      </c>
-      <c r="O33" s="10">
-        <v>5</v>
-      </c>
-      <c r="P33" s="10">
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>5</v>
+      </c>
+      <c r="P33" s="6">
         <v>195</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="6">
         <v>9</v>
       </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
-      <c r="T33" s="12" t="s">
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="8">
         <v>17</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="8">
         <v>3470</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="8">
         <v>4010</v>
       </c>
-      <c r="X33" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="13">
+      <c r="X33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="8">
         <v>195</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="8">
         <v>9</v>
       </c>
-      <c r="AB33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="15" t="s">
+      <c r="AB33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>4010</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>4710</v>
       </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
         <v>15000</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="6">
         <v>18</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="6">
         <v>4010</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="6">
         <v>4710</v>
       </c>
-      <c r="N34" s="10">
-        <v>1</v>
-      </c>
-      <c r="O34" s="10">
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
         <v>3</v>
       </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="10">
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
         <v>15000</v>
       </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
-      <c r="T34" s="12" t="s">
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="8">
         <v>18</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="8">
         <v>4010</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="8">
         <v>4710</v>
       </c>
-      <c r="X34" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="13">
+      <c r="X34" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="8">
         <v>3</v>
       </c>
-      <c r="Z34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="13">
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
         <v>15000</v>
       </c>
-      <c r="AB34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="15" t="s">
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>4710</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>5250</v>
       </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="6">
         <v>19</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="6">
         <v>4710</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="6">
         <v>5250</v>
       </c>
-      <c r="N35" s="10">
-        <v>1</v>
-      </c>
-      <c r="O35" s="10">
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
         <v>6</v>
       </c>
-      <c r="P35" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>1</v>
-      </c>
-      <c r="R35" s="10">
-        <v>5</v>
-      </c>
-      <c r="S35" s="10">
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+      <c r="R35" s="6">
+        <v>5</v>
+      </c>
+      <c r="S35" s="6">
         <v>3</v>
       </c>
-      <c r="T35" s="12" t="s">
+      <c r="T35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="8">
         <v>19</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="8">
         <v>4710</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="8">
         <v>5250</v>
       </c>
-      <c r="X35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="13">
+      <c r="X35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="8">
         <v>6</v>
       </c>
-      <c r="Z35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="13">
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="8">
         <v>3</v>
       </c>
-      <c r="AD35" s="15" t="s">
+      <c r="AD35" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>5250</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>6000</v>
       </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>5</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4">
         <v>195</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="6">
         <v>20</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="6">
         <v>5250</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="6">
         <v>6000</v>
       </c>
-      <c r="N36" s="10">
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
-        <v>5</v>
-      </c>
-      <c r="P36" s="10">
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>5</v>
+      </c>
+      <c r="P36" s="6">
         <v>195</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="6">
         <v>10</v>
       </c>
-      <c r="R36" s="10">
-        <v>0</v>
-      </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12" t="s">
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="8">
         <v>20</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="8">
         <v>5250</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="8">
         <v>6000</v>
       </c>
-      <c r="X36" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="13">
+      <c r="X36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="8">
         <v>195</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA36" s="8">
         <v>10</v>
       </c>
-      <c r="AB36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="15" t="s">
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>6000</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>6960</v>
       </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
         <v>3</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="6">
         <v>21</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="6">
         <v>6000</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="6">
         <v>6960</v>
       </c>
-      <c r="N37" s="10">
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6">
         <v>3</v>
       </c>
-      <c r="P37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
         <v>20000</v>
       </c>
-      <c r="R37" s="10">
-        <v>0</v>
-      </c>
-      <c r="S37" s="10">
-        <v>0</v>
-      </c>
-      <c r="T37" s="12" t="s">
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="8">
         <v>21</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="8">
         <v>6000</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="8">
         <v>6960</v>
       </c>
-      <c r="X37" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="13">
+      <c r="X37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="8">
         <v>3</v>
       </c>
-      <c r="Z37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="13">
+      <c r="Z37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
         <v>20000</v>
       </c>
-      <c r="AB37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="15" t="s">
+      <c r="AB37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1" t="s">
@@ -3369,53 +3369,53 @@
       </c>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="K57" s="2" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="K57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="U57" s="2" t="s">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="U57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
     </row>
     <row r="58" spans="1:29">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="L58" s="2" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="L58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="V58" s="2" t="s">
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="V58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1" t="s">
@@ -3929,102 +3929,102 @@
       </c>
     </row>
     <row r="75" spans="1:29">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:29">
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:29">
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="4" t="s">
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1" t="s">
@@ -4155,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E81" s="1">
         <v>18</v>
@@ -4274,37 +4274,37 @@
       </c>
     </row>
     <row r="96" spans="1:29">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
     </row>
     <row r="97" spans="1:17">
       <c r="D97" s="1" t="s">
@@ -4345,7 +4345,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4362,7 +4362,7 @@
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="3"/>
+      <c r="A99" s="17"/>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
@@ -4377,8 +4377,8 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3" t="s">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
@@ -4411,8 +4411,8 @@
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="1" t="s">
         <v>36</v>
       </c>
@@ -4427,8 +4427,8 @@
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
@@ -4443,8 +4443,8 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="1" t="s">
         <v>38</v>
       </c>
@@ -4459,8 +4459,8 @@
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
@@ -4475,8 +4475,8 @@
       </c>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4534,8 +4534,8 @@
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4577,8 +4577,8 @@
       </c>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
@@ -4620,8 +4620,8 @@
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
@@ -4663,8 +4663,8 @@
       </c>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
@@ -4706,8 +4706,8 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="1" t="s">
         <v>46</v>
       </c>
@@ -4749,8 +4749,8 @@
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="20" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" ht="19" customHeight="1">
-      <c r="A119" s="2"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="1" t="s">
         <v>51</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" ht="19" customHeight="1">
-      <c r="A120" s="2"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="1" t="s">
         <v>52</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="19" customHeight="1">
-      <c r="A121" s="2"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
@@ -4830,7 +4830,7 @@
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4841,7 +4841,7 @@
       </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" s="2"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>56</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="2"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="1" t="s">
         <v>57</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="20" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="19" customHeight="1">
-      <c r="A131" s="2"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="1" t="s">
         <v>61</v>
       </c>
@@ -4895,26 +4895,26 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="16"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="16"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="1" t="s">
         <v>107</v>
       </c>
@@ -4923,9 +4923,9 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="16"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="16"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="1" t="s">
         <v>108</v>
       </c>
@@ -4934,22 +4934,22 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="16"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="16" t="s">
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="16"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="16"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="1" t="s">
         <v>107</v>
       </c>
@@ -4958,9 +4958,9 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="16"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="16"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="1" t="s">
         <v>108</v>
       </c>
@@ -4969,22 +4969,22 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="16"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="16" t="s">
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="16"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="16"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="1" t="s">
         <v>107</v>
       </c>
@@ -4993,9 +4993,9 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="16"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="16"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="1" t="s">
         <v>108</v>
       </c>
@@ -5004,24 +5004,24 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="16"/>
-      <c r="B145" s="2" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="16"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="16"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="1" t="s">
         <v>107</v>
       </c>
@@ -5030,9 +5030,9 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="16"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="16"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="1" t="s">
         <v>108</v>
       </c>
@@ -5041,22 +5041,22 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="19" customHeight="1">
-      <c r="A148" s="16"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="16" t="s">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="16"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="16"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="1" t="s">
         <v>107</v>
       </c>
@@ -5065,9 +5065,9 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="16"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="16"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="1" t="s">
         <v>108</v>
       </c>
@@ -5076,22 +5076,22 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="16"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="16" t="s">
+      <c r="A151" s="11"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="16"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="16"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="1" t="s">
         <v>107</v>
       </c>
@@ -5100,9 +5100,9 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="16"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="16"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="1" t="s">
         <v>108</v>
       </c>
@@ -5112,15 +5112,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A136:A153"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="B145:B153"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:S78"/>
+    <mergeCell ref="E77:S77"/>
+    <mergeCell ref="A76:S76"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="K57:P57"/>
@@ -5135,16 +5136,15 @@
     <mergeCell ref="U15:X15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:S78"/>
-    <mergeCell ref="E77:S77"/>
-    <mergeCell ref="A76:S76"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A136:A153"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5163,67 +5163,67 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B6A96-6097-3F47-BFA7-6FE6410EE8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45952A35-8155-A440-A2DB-2FD5E10996FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
+    <workbookView xWindow="-260" yWindow="-20060" windowWidth="33600" windowHeight="18780" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -277,24 +277,15 @@
     <t>当季特殊球1*4</t>
   </si>
   <si>
-    <t>💎*300</t>
-  </si>
-  <si>
     <t>Epic宝箱</t>
   </si>
   <si>
     <t>当季特殊球1*5</t>
   </si>
   <si>
-    <t>💎*400</t>
-  </si>
-  <si>
     <t>当季特殊球1*6</t>
   </si>
   <si>
-    <t>💎*500</t>
-  </si>
-  <si>
     <t>当季特殊球1*7</t>
   </si>
   <si>
@@ -421,25 +412,37 @@
     <t>The event offer has been refreshed! Come and collect the reward!</t>
   </si>
   <si>
-    <t>The Octopus Offer Event is about to end! Come and win more rewards!</t>
-  </si>
-  <si>
-    <t>Icon_xlb_token_17</t>
-  </si>
-  <si>
     <t>gfx_golf_coin</t>
   </si>
   <si>
     <t>after_open_chest</t>
   </si>
   <si>
-    <t>The Octopus Offer Event has started!</t>
-  </si>
-  <si>
-    <t>Icon_xlb_token_dui_17</t>
-  </si>
-  <si>
-    <t>The Octopus Offer!</t>
+    <t>The Detour Offer!</t>
+  </si>
+  <si>
+    <t>💎*100</t>
+  </si>
+  <si>
+    <t>💎*150</t>
+  </si>
+  <si>
+    <t>💎*200</t>
+  </si>
+  <si>
+    <t>The Detour Offer Event has started!</t>
+  </si>
+  <si>
+    <t>The Detour Offer Event is about to end! Come and win more rewards!</t>
+  </si>
+  <si>
+    <t>// 只有双球的时候才会有自己独立的底板和颜色</t>
+  </si>
+  <si>
+    <t>Icon_xlb_token_19</t>
+  </si>
+  <si>
+    <t>Icon_xlb_token_dui_19</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,6 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -874,8 +878,8 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -883,7 +887,8 @@
     <col min="1" max="1" width="10.7109375" style="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" style="1"/>
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="20" width="10.7109375" style="1"/>
     <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
@@ -1017,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1025,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1041,9 +1046,12 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>1628838000</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>1629442800</v>
+      </c>
+      <c r="D7" s="11">
+        <v>44428.625</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1052,9 +1060,12 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>1629097200</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>1629702000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44431.625</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1063,9 +1074,12 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>1628492400</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>1629097200</v>
+      </c>
+      <c r="D9" s="11">
+        <v>44424.625</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1076,7 +1090,7 @@
       <c r="B10" s="1">
         <v>86400</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1114,37 +1128,37 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
@@ -1203,47 +1217,47 @@
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13" t="s">
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
@@ -1349,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1379,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="P17" s="6">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="6">
         <v>2</v>
@@ -1409,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="Z17" s="8">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="AA17" s="8">
         <v>2</v>
@@ -1441,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
@@ -1471,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="6">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="6">
         <v>3</v>
@@ -1501,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="Z18" s="8">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="AA18" s="8">
         <v>3</v>
@@ -1533,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G19" s="4">
         <v>4</v>
@@ -1563,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="6">
         <v>4</v>
@@ -1593,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="Z19" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA19" s="8">
         <v>4</v>
@@ -1628,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -1637,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K20" s="6">
         <v>4</v>
@@ -1658,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R20" s="6">
         <v>0</v>
@@ -1667,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="U20" s="8">
         <v>4</v>
@@ -1688,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="8">
         <v>0</v>
@@ -1697,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -1729,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="6">
         <v>5</v>
@@ -1759,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U21" s="8">
         <v>5</v>
@@ -1789,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -1809,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G22" s="4">
         <v>5</v>
@@ -1821,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="6">
         <v>6</v>
@@ -1839,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="6">
         <v>5</v>
@@ -1851,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U22" s="8">
         <v>6</v>
@@ -1869,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="Z22" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="8">
         <v>5</v>
@@ -1881,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -1904,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -1913,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K23" s="6">
         <v>7</v>
@@ -1934,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="6">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="R23" s="6">
         <v>0</v>
@@ -1943,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="U23" s="8">
         <v>7</v>
@@ -1964,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="AB23" s="8">
         <v>0</v>
@@ -1973,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2005,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="6">
         <v>8</v>
@@ -2035,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U24" s="8">
         <v>8</v>
@@ -2065,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2085,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G25" s="4">
         <v>6</v>
@@ -2097,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K25" s="6">
         <v>9</v>
@@ -2115,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="6">
         <v>6</v>
@@ -2127,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U25" s="8">
         <v>9</v>
@@ -2145,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="Z25" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="8">
         <v>6</v>
@@ -2157,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2180,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -2189,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K26" s="6">
         <v>10</v>
@@ -2210,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R26" s="6">
         <v>0</v>
@@ -2219,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="U26" s="8">
         <v>10</v>
@@ -2240,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="8">
         <v>0</v>
@@ -2249,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2281,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="6">
         <v>11</v>
@@ -2311,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U27" s="8">
         <v>11</v>
@@ -2341,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -2361,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G28" s="4">
         <v>7</v>
@@ -2373,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K28" s="6">
         <v>12</v>
@@ -2391,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="6">
         <v>7</v>
@@ -2403,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U28" s="8">
         <v>12</v>
@@ -2421,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="Z28" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA28" s="8">
         <v>7</v>
@@ -2433,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -2465,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K29" s="6">
         <v>13</v>
@@ -2495,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U29" s="8">
         <v>13</v>
@@ -2525,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="AD29" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -2545,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G30" s="4">
         <v>8</v>
@@ -2557,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K30" s="6">
         <v>14</v>
@@ -2575,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="6">
         <v>8</v>
@@ -2587,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U30" s="8">
         <v>14</v>
@@ -2605,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="Z30" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="8">
         <v>8</v>
@@ -2617,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -2649,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K31" s="6">
         <v>15</v>
@@ -2679,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U31" s="8">
         <v>15</v>
@@ -2709,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -2741,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K32" s="6">
         <v>16</v>
@@ -2771,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U32" s="8">
         <v>16</v>
@@ -2801,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -2821,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G33" s="4">
         <v>9</v>
@@ -2833,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K33" s="6">
         <v>17</v>
@@ -2851,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="P33" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="6">
         <v>9</v>
@@ -2863,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U33" s="8">
         <v>17</v>
@@ -2881,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="Z33" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="8">
         <v>9</v>
@@ -2893,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -2925,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K34" s="6">
         <v>18</v>
@@ -2955,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U34" s="8">
         <v>18</v>
@@ -2985,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3017,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K35" s="6">
         <v>19</v>
@@ -3047,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U35" s="8">
         <v>19</v>
@@ -3077,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3097,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G36" s="4">
         <v>10</v>
@@ -3109,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K36" s="6">
         <v>20</v>
@@ -3127,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="6">
         <v>10</v>
@@ -3139,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U36" s="8">
         <v>20</v>
@@ -3157,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="Z36" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA36" s="8">
         <v>10</v>
@@ -3169,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3201,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K37" s="6">
         <v>21</v>
@@ -3231,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U37" s="8">
         <v>21</v>
@@ -3261,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -3298,37 +3312,37 @@
       <c r="AC54" s="2"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1" t="s">
@@ -3369,53 +3383,53 @@
       </c>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="K57" s="12" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="K57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="U57" s="12" t="s">
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="U57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:29">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="L58" s="12" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="L58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="V58" s="12" t="s">
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="V58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1" t="s">
@@ -3481,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -3493,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K60" s="1">
         <v>3</v>
@@ -3502,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="M60" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N60" s="1">
         <v>5</v>
@@ -3514,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U60" s="1">
         <v>3</v>
@@ -3523,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="W60" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X60" s="1">
         <v>5</v>
@@ -3535,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -3546,7 +3560,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1">
         <v>10</v>
@@ -3558,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K61" s="1">
         <v>6</v>
@@ -3567,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="M61" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -3579,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U61" s="1">
         <v>6</v>
@@ -3588,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="W61" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="X61" s="1">
         <v>10</v>
@@ -3600,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -3611,7 +3625,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D62" s="1">
         <v>10</v>
@@ -3623,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K62" s="1">
         <v>9</v>
@@ -3632,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -3644,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U62" s="1">
         <v>9</v>
@@ -3653,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="W62" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="X62" s="1">
         <v>10</v>
@@ -3665,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -3676,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1">
         <v>10</v>
@@ -3688,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K63" s="1">
         <v>12</v>
@@ -3697,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -3709,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U63" s="1">
         <v>12</v>
@@ -3718,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="W63" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X63" s="1">
         <v>10</v>
@@ -3730,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -3741,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D64" s="1">
         <v>20</v>
@@ -3753,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K64" s="1">
         <v>15</v>
@@ -3762,7 +3776,7 @@
         <v>5</v>
       </c>
       <c r="M64" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="N64" s="1">
         <v>20</v>
@@ -3774,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U64" s="1">
         <v>15</v>
@@ -3783,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="W64" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="X64" s="1">
         <v>20</v>
@@ -3795,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -3806,7 +3820,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1">
         <v>20</v>
@@ -3818,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K65" s="1">
         <v>18</v>
@@ -3827,7 +3841,7 @@
         <v>5</v>
       </c>
       <c r="M65" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="N65" s="1">
         <v>20</v>
@@ -3839,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U65" s="1">
         <v>18</v>
@@ -3848,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="W65" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="X65" s="1">
         <v>20</v>
@@ -3860,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -3871,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -3883,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K66" s="1">
         <v>21</v>
@@ -3892,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="M66" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N66" s="1">
         <v>20</v>
@@ -3904,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U66" s="1">
         <v>21</v>
@@ -3913,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="W66" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X66" s="1">
         <v>20</v>
@@ -3925,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -3962,69 +3976,69 @@
       <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
     </row>
     <row r="77" spans="1:29">
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
     </row>
     <row r="78" spans="1:29">
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12" t="s">
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="16" t="s">
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1" t="s">
@@ -4087,7 +4101,7 @@
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -4146,7 +4160,7 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -4205,10 +4219,10 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1">
-        <v>201761</v>
+        <v>201791</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4219,10 +4233,10 @@
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1">
-        <v>201762</v>
+        <v>201792</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4233,10 +4247,10 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
-        <v>201763</v>
+        <v>201793</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4247,10 +4261,10 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1">
-        <v>201764</v>
+        <v>201794</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4261,10 +4275,10 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
-        <v>201765</v>
+        <v>201795</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -4277,7 +4291,9 @@
       <c r="A96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4345,7 +4361,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4362,7 +4378,7 @@
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="17"/>
+      <c r="A99" s="18"/>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
@@ -4377,122 +4393,122 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4534,8 +4550,8 @@
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4577,8 +4593,8 @@
       </c>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
@@ -4620,8 +4636,8 @@
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
@@ -4663,8 +4679,8 @@
       </c>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
@@ -4706,8 +4722,8 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="1" t="s">
         <v>46</v>
       </c>
@@ -4749,8 +4765,8 @@
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4792,36 +4808,36 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="20" customHeight="1">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="19" customHeight="1">
-      <c r="A119" s="12"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="19" customHeight="1">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="19" customHeight="1">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
@@ -4830,36 +4846,36 @@
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" s="12"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="12"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="20" customHeight="1">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4873,7 +4889,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="19" customHeight="1">
-      <c r="A131" s="12"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="1" t="s">
         <v>61</v>
       </c>
@@ -4891,223 +4907,223 @@
     </row>
     <row r="133" spans="1:5">
       <c r="D133" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B136" s="12" t="s">
+      <c r="A136" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D139" s="1" t="s">
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="12"/>
+      <c r="B145" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="19" customHeight="1">
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="11" t="s">
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="19" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E150" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45952A35-8155-A440-A2DB-2FD5E10996FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2721CE1-B51B-9C48-9B73-E465D5CAB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="-20060" windowWidth="33600" windowHeight="18780" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,9 +541,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,11 +558,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,14 +878,14 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.7109375" style="1"/>
@@ -1045,12 +1045,10 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>1629442800</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="11">
         <v>44428.625</v>
       </c>
+      <c r="D7" s="11"/>
       <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1059,12 +1057,10 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
-        <v>1629702000</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="11">
         <v>44431.625</v>
       </c>
+      <c r="D8" s="11"/>
       <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1073,12 +1069,10 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1">
-        <v>1629097200</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="11">
         <v>44424.625</v>
       </c>
+      <c r="D9" s="11"/>
       <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1128,37 +1122,37 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
@@ -1217,47 +1211,47 @@
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="14" t="s">
+      <c r="U15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
@@ -3312,37 +3306,37 @@
       <c r="AC54" s="2"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1" t="s">
@@ -3383,53 +3377,53 @@
       </c>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="K57" s="13" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="K57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="U57" s="13" t="s">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="U57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
     </row>
     <row r="58" spans="1:29">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="L58" s="13" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="L58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="V58" s="13" t="s">
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="V58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1" t="s">
@@ -3976,69 +3970,69 @@
       <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:29">
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:29">
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="17" t="s">
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1" t="s">
@@ -4361,7 +4355,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4378,7 +4372,7 @@
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="18"/>
+      <c r="A99" s="13"/>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
@@ -4393,8 +4387,8 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18" t="s">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4411,8 +4405,8 @@
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
@@ -4427,8 +4421,8 @@
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="1" t="s">
         <v>36</v>
       </c>
@@ -4443,8 +4437,8 @@
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
@@ -4459,8 +4453,8 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="1" t="s">
         <v>38</v>
       </c>
@@ -4475,8 +4469,8 @@
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
@@ -4491,8 +4485,8 @@
       </c>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
@@ -4507,8 +4501,8 @@
       </c>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4550,8 +4544,8 @@
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4593,8 +4587,8 @@
       </c>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
@@ -4636,8 +4630,8 @@
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
@@ -4679,8 +4673,8 @@
       </c>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
@@ -4722,8 +4716,8 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="1" t="s">
         <v>46</v>
       </c>
@@ -4765,8 +4759,8 @@
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4808,7 +4802,7 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="20" customHeight="1">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -4819,7 +4813,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" ht="19" customHeight="1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="1" t="s">
         <v>51</v>
       </c>
@@ -4828,7 +4822,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" ht="19" customHeight="1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="1" t="s">
         <v>52</v>
       </c>
@@ -4837,7 +4831,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="19" customHeight="1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
@@ -4846,7 +4840,7 @@
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4857,7 +4851,7 @@
       </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" s="13"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>56</v>
       </c>
@@ -4866,7 +4860,7 @@
       </c>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="13"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="1" t="s">
         <v>57</v>
       </c>
@@ -4875,7 +4869,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="20" customHeight="1">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4889,7 +4883,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="19" customHeight="1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="1" t="s">
         <v>61</v>
       </c>
@@ -4911,13 +4905,13 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4928,9 +4922,9 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="12"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="12"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="18"/>
       <c r="D137" s="1" t="s">
         <v>104</v>
       </c>
@@ -4939,9 +4933,9 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="12"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="12"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="1" t="s">
         <v>105</v>
       </c>
@@ -4950,9 +4944,9 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="12"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="12" t="s">
+      <c r="A139" s="18"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -4963,9 +4957,9 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="12"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="12"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="18"/>
       <c r="D140" s="1" t="s">
         <v>104</v>
       </c>
@@ -4974,9 +4968,9 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="12"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="12"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="18"/>
       <c r="D141" s="1" t="s">
         <v>105</v>
       </c>
@@ -4985,9 +4979,9 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="12"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="12" t="s">
+      <c r="A142" s="18"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -4998,9 +4992,9 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="12"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="12"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="1" t="s">
         <v>104</v>
       </c>
@@ -5009,9 +5003,9 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="12"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="12"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="18"/>
       <c r="D144" s="1" t="s">
         <v>105</v>
       </c>
@@ -5020,11 +5014,11 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="12"/>
-      <c r="B145" s="13" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -5035,9 +5029,9 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="12"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="12"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="18"/>
       <c r="D146" s="1" t="s">
         <v>104</v>
       </c>
@@ -5046,9 +5040,9 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="12"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="12"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="18"/>
       <c r="D147" s="1" t="s">
         <v>105</v>
       </c>
@@ -5057,9 +5051,9 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="19" customHeight="1">
-      <c r="A148" s="12"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="12" t="s">
+      <c r="A148" s="18"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -5070,9 +5064,9 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="12"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="18"/>
       <c r="D149" s="1" t="s">
         <v>104</v>
       </c>
@@ -5081,9 +5075,9 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="12"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="12"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="18"/>
       <c r="D150" s="1" t="s">
         <v>105</v>
       </c>
@@ -5092,9 +5086,9 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="12"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="12" t="s">
+      <c r="A151" s="18"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -5105,9 +5099,9 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="12"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="18"/>
       <c r="D152" s="1" t="s">
         <v>104</v>
       </c>
@@ -5116,9 +5110,9 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="12"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="18"/>
       <c r="D153" s="1" t="s">
         <v>105</v>
       </c>
@@ -5128,16 +5122,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:S78"/>
-    <mergeCell ref="E77:S77"/>
-    <mergeCell ref="A76:S76"/>
+    <mergeCell ref="A136:A153"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="K57:P57"/>
@@ -5152,15 +5145,16 @@
     <mergeCell ref="U15:X15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A136:A153"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="B145:B153"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:S78"/>
+    <mergeCell ref="E77:S77"/>
+    <mergeCell ref="A76:S76"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A125:A127"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2721CE1-B51B-9C48-9B73-E465D5CAB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5904D2-95CD-5048-8F26-04615160BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/CraneOffer/CraneOfferconfigs.xlsx
+++ b/CraneOffer/CraneOfferconfigs.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/CraneOffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5904D2-95CD-5048-8F26-04615160BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D907C-4D02-5147-9644-C17DCB236706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{5067BC04-E891-FD43-901A-D638E16788E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="cache_space" sheetId="2" r:id="rId2"/>
+    <sheet name="21" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -308,18 +307,6 @@
   </si>
   <si>
     <t>金币*20000</t>
-  </si>
-  <si>
-    <t>地球杆*10</t>
-  </si>
-  <si>
-    <t>木轮杆*12</t>
-  </si>
-  <si>
-    <t>地球*14</t>
-  </si>
-  <si>
-    <t>LAVA*12</t>
   </si>
   <si>
     <t>大奖球*5</t>
@@ -474,7 +461,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,11 +520,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -541,12 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,9 +547,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +873,8 @@
   <dimension ref="A1:AD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1030,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1045,10 +1040,10 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44428.625</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1057,10 +1052,10 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44431.625</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1069,10 +1064,10 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44424.625</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1155,2120 +1150,2120 @@
       <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>7</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>10</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="8" t="s">
+      <c r="T14" s="5"/>
+      <c r="U14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <v>11</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8" t="s">
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="8"/>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="16" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="15" t="s">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15" t="s">
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="8"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="7"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="6" t="s">
+      <c r="O16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="8" t="s">
+      <c r="T16" s="5"/>
+      <c r="U16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Y16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="8" t="s">
+      <c r="AA16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB16" s="8" t="s">
+      <c r="AB16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" s="8" t="s">
+      <c r="AC16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AD16" s="9"/>
+      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>80</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>129</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
         <v>80</v>
       </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6">
-        <v>5</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>5</v>
+      </c>
+      <c r="P17" s="5">
         <v>129</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>2</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="s">
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U17" s="8">
-        <v>1</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
         <v>80</v>
       </c>
-      <c r="X17" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="8">
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="7">
         <v>129</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="7">
         <v>2</v>
       </c>
-      <c r="AB17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>80</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>170</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>130</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>2</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>80</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>170</v>
       </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6">
-        <v>5</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>5</v>
+      </c>
+      <c r="P18" s="5">
         <v>130</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="s">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>2</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>80</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="7">
         <v>170</v>
       </c>
-      <c r="X18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="8">
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="7">
         <v>130</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="7">
         <v>3</v>
       </c>
-      <c r="AB18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="9" t="s">
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>170</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>270</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
         <v>200</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>3</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>170</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>270</v>
       </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6">
-        <v>5</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>5</v>
+      </c>
+      <c r="P19" s="5">
         <v>200</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>4</v>
       </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7" t="s">
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <v>3</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="7">
         <v>170</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="7">
         <v>270</v>
       </c>
-      <c r="X19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="8">
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="7">
         <v>200</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="7">
         <v>4</v>
       </c>
-      <c r="AB19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>270</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>360</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="5">
         <v>4</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>270</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>360</v>
       </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
         <v>2</v>
       </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <v>100</v>
       </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="U20" s="8">
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="7">
         <v>4</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>270</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>360</v>
       </c>
-      <c r="X20" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="8">
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="7">
         <v>2</v>
       </c>
-      <c r="Z20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="8">
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
         <v>100</v>
       </c>
-      <c r="AB20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="AB20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="20" customFormat="1">
+      <c r="A21" s="18">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18">
         <v>360</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="18">
         <v>480</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
         <v>6</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
         <v>7</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="18">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="6">
-        <v>5</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
+      <c r="L21" s="18">
         <v>360</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="18">
         <v>480</v>
       </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <v>4</v>
-      </c>
-      <c r="P21" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="6">
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18">
+        <v>6</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18">
+        <v>7</v>
+      </c>
+      <c r="S21" s="18">
+        <v>3</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="18">
+        <v>5</v>
+      </c>
+      <c r="V21" s="18">
+        <v>360</v>
+      </c>
+      <c r="W21" s="18">
+        <v>480</v>
+      </c>
+      <c r="X21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>480</v>
+      </c>
+      <c r="C22" s="3">
+        <v>630</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
+        <v>480</v>
+      </c>
+      <c r="M22" s="5">
+        <v>630</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5</v>
+      </c>
+      <c r="P22" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>5</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="7">
+        <v>6</v>
+      </c>
+      <c r="V22" s="7">
+        <v>480</v>
+      </c>
+      <c r="W22" s="7">
+        <v>630</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>630</v>
+      </c>
+      <c r="C23" s="3">
+        <v>750</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>150</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="5">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>630</v>
+      </c>
+      <c r="M23" s="5">
+        <v>750</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>150</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U23" s="7">
+        <v>7</v>
+      </c>
+      <c r="V23" s="7">
+        <v>630</v>
+      </c>
+      <c r="W23" s="7">
+        <v>750</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>150</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="20" customFormat="1">
+      <c r="A24" s="18">
+        <v>8</v>
+      </c>
+      <c r="B24" s="18">
+        <v>750</v>
+      </c>
+      <c r="C24" s="18">
+        <v>930</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>7</v>
+      </c>
+      <c r="I24" s="18">
+        <v>3</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="18">
+        <v>8</v>
+      </c>
+      <c r="L24" s="18">
+        <v>750</v>
+      </c>
+      <c r="M24" s="18">
+        <v>930</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18">
+        <v>6</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>1</v>
+      </c>
+      <c r="R24" s="18">
+        <v>7</v>
+      </c>
+      <c r="S24" s="18">
+        <v>3</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="18">
+        <v>8</v>
+      </c>
+      <c r="V24" s="18">
+        <v>750</v>
+      </c>
+      <c r="W24" s="18">
+        <v>930</v>
+      </c>
+      <c r="X24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="18">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>930</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1170</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>200</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="5">
+        <v>9</v>
+      </c>
+      <c r="L25" s="5">
+        <v>930</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1170</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>5</v>
+      </c>
+      <c r="P25" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>6</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="U25" s="7">
+        <v>9</v>
+      </c>
+      <c r="V25" s="7">
+        <v>930</v>
+      </c>
+      <c r="W25" s="7">
+        <v>1170</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="R21" s="6">
+      <c r="B26" s="3">
+        <v>1170</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="5">
+        <v>10</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1170</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1350</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>200</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="U26" s="7">
+        <v>10</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1170</v>
+      </c>
+      <c r="W26" s="7">
+        <v>1350</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="20" customFormat="1">
+      <c r="A27" s="18">
+        <v>11</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1350</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>7</v>
+      </c>
+      <c r="I27" s="18">
         <v>3</v>
       </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="8">
-        <v>5</v>
-      </c>
-      <c r="V21" s="8">
-        <v>360</v>
-      </c>
-      <c r="W21" s="8">
-        <v>480</v>
-      </c>
-      <c r="X21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="8">
-        <v>31</v>
-      </c>
-      <c r="AA21" s="8">
+      <c r="J27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="18">
+        <v>11</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1350</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1610</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18">
+        <v>6</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>1</v>
+      </c>
+      <c r="R27" s="18">
+        <v>7</v>
+      </c>
+      <c r="S27" s="18">
+        <v>3</v>
+      </c>
+      <c r="T27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="18">
+        <v>11</v>
+      </c>
+      <c r="V27" s="18">
+        <v>1350</v>
+      </c>
+      <c r="W27" s="18">
+        <v>1610</v>
+      </c>
+      <c r="X27" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="3">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1610</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>200</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="5">
+        <v>12</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1610</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1950</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>7</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="7">
+        <v>12</v>
+      </c>
+      <c r="V28" s="7">
+        <v>1610</v>
+      </c>
+      <c r="W28" s="7">
+        <v>1950</v>
+      </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="3">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2210</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="5">
+        <v>13</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1950</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2210</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>6</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+      <c r="R29" s="5">
+        <v>5</v>
+      </c>
+      <c r="S29" s="5">
+        <v>3</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U29" s="7">
+        <v>13</v>
+      </c>
+      <c r="V29" s="7">
+        <v>1950</v>
+      </c>
+      <c r="W29" s="7">
+        <v>2210</v>
+      </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="3">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2210</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2590</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>200</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="5">
+        <v>14</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2210</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2590</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>5</v>
+      </c>
+      <c r="P30" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>8</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="7">
+        <v>14</v>
+      </c>
+      <c r="V30" s="7">
+        <v>2210</v>
+      </c>
+      <c r="W30" s="7">
+        <v>2590</v>
+      </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2590</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3090</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="5">
+        <v>15</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2590</v>
+      </c>
+      <c r="M31" s="5">
+        <v>3090</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>3</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>10000</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U31" s="7">
+        <v>15</v>
+      </c>
+      <c r="V31" s="7">
+        <v>2590</v>
+      </c>
+      <c r="W31" s="7">
+        <v>3090</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="3">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3090</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3470</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="5">
+        <v>16</v>
+      </c>
+      <c r="L32" s="5">
+        <v>3090</v>
+      </c>
+      <c r="M32" s="5">
+        <v>3470</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>6</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>5</v>
+      </c>
+      <c r="S32" s="5">
+        <v>3</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" s="7">
+        <v>16</v>
+      </c>
+      <c r="V32" s="7">
+        <v>3090</v>
+      </c>
+      <c r="W32" s="7">
+        <v>3470</v>
+      </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="3">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3470</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="5">
+        <v>17</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3470</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4010</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>9</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U33" s="7">
+        <v>17</v>
+      </c>
+      <c r="V33" s="7">
+        <v>3470</v>
+      </c>
+      <c r="W33" s="7">
+        <v>4010</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="3">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4710</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="5">
+        <v>18</v>
+      </c>
+      <c r="L34" s="5">
+        <v>4010</v>
+      </c>
+      <c r="M34" s="5">
+        <v>4710</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>3</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>15000</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U34" s="7">
+        <v>18</v>
+      </c>
+      <c r="V34" s="7">
+        <v>4010</v>
+      </c>
+      <c r="W34" s="7">
+        <v>4710</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="3">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4710</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5250</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="5">
+        <v>19</v>
+      </c>
+      <c r="L35" s="5">
+        <v>4710</v>
+      </c>
+      <c r="M35" s="5">
+        <v>5250</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>6</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>5</v>
+      </c>
+      <c r="S35" s="5">
+        <v>3</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U35" s="7">
+        <v>19</v>
+      </c>
+      <c r="V35" s="7">
+        <v>4710</v>
+      </c>
+      <c r="W35" s="7">
+        <v>5250</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="3">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5250</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>200</v>
+      </c>
+      <c r="G36" s="3">
         <v>10</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="5">
+        <v>20</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5250</v>
+      </c>
+      <c r="M36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <v>5</v>
+      </c>
+      <c r="P36" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>10</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" s="7">
+        <v>20</v>
+      </c>
+      <c r="V36" s="7">
+        <v>5250</v>
+      </c>
+      <c r="W36" s="7">
+        <v>6000</v>
+      </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>200</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="3">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6960</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
         <v>3</v>
       </c>
-      <c r="AC21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="4">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4">
-        <v>480</v>
-      </c>
-      <c r="C22" s="4">
-        <v>630</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>200</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="6">
-        <v>6</v>
-      </c>
-      <c r="L22" s="6">
-        <v>480</v>
-      </c>
-      <c r="M22" s="6">
-        <v>630</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <v>5</v>
-      </c>
-      <c r="P22" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>5</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U22" s="8">
-        <v>6</v>
-      </c>
-      <c r="V22" s="8">
-        <v>480</v>
-      </c>
-      <c r="W22" s="8">
-        <v>630</v>
-      </c>
-      <c r="X22" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4">
-        <v>630</v>
-      </c>
-      <c r="C23" s="4">
-        <v>750</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>150</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="6">
-        <v>7</v>
-      </c>
-      <c r="L23" s="6">
-        <v>630</v>
-      </c>
-      <c r="M23" s="6">
-        <v>750</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>2</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>150</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U23" s="8">
-        <v>7</v>
-      </c>
-      <c r="V23" s="8">
-        <v>630</v>
-      </c>
-      <c r="W23" s="8">
-        <v>750</v>
-      </c>
-      <c r="X23" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>150</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="4">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4">
-        <v>750</v>
-      </c>
-      <c r="C24" s="4">
-        <v>930</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="5">
+        <v>21</v>
+      </c>
+      <c r="L37" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M37" s="5">
+        <v>6960</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="6">
-        <v>8</v>
-      </c>
-      <c r="L24" s="6">
-        <v>750</v>
-      </c>
-      <c r="M24" s="6">
-        <v>930</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6">
-        <v>4</v>
-      </c>
-      <c r="P24" s="6">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>12</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>20000</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U37" s="7">
+        <v>21</v>
+      </c>
+      <c r="V37" s="7">
+        <v>6000</v>
+      </c>
+      <c r="W37" s="7">
+        <v>6960</v>
+      </c>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="7">
         <v>3</v>
       </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="U24" s="8">
-        <v>8</v>
-      </c>
-      <c r="V24" s="8">
-        <v>750</v>
-      </c>
-      <c r="W24" s="8">
-        <v>930</v>
-      </c>
-      <c r="X24" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="8">
-        <v>55</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="4">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4">
-        <v>930</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1170</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>200</v>
-      </c>
-      <c r="G25" s="4">
-        <v>6</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="6">
-        <v>9</v>
-      </c>
-      <c r="L25" s="6">
-        <v>930</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1170</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>5</v>
-      </c>
-      <c r="P25" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>6</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="U25" s="8">
-        <v>9</v>
-      </c>
-      <c r="V25" s="8">
-        <v>930</v>
-      </c>
-      <c r="W25" s="8">
-        <v>1170</v>
-      </c>
-      <c r="X25" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="4">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1170</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1350</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>200</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="6">
-        <v>10</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1170</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1350</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6">
-        <v>2</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>200</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U26" s="8">
-        <v>10</v>
-      </c>
-      <c r="V26" s="8">
-        <v>1170</v>
-      </c>
-      <c r="W26" s="8">
-        <v>1350</v>
-      </c>
-      <c r="X26" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>200</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="4">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1350</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1610</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>7</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="6">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1350</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1610</v>
-      </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
-        <v>4</v>
-      </c>
-      <c r="P27" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>14</v>
-      </c>
-      <c r="R27" s="6">
-        <v>3</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U27" s="8">
-        <v>11</v>
-      </c>
-      <c r="V27" s="8">
-        <v>1350</v>
-      </c>
-      <c r="W27" s="8">
-        <v>1610</v>
-      </c>
-      <c r="X27" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>31</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>14</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="4">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1610</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1950</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4">
-        <v>200</v>
-      </c>
-      <c r="G28" s="4">
-        <v>7</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="6">
-        <v>12</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1610</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1950</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <v>5</v>
-      </c>
-      <c r="P28" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>7</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U28" s="8">
-        <v>12</v>
-      </c>
-      <c r="V28" s="8">
-        <v>1610</v>
-      </c>
-      <c r="W28" s="8">
-        <v>1950</v>
-      </c>
-      <c r="X28" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>7</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="4">
-        <v>13</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1950</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2210</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4">
-        <v>3</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="6">
-        <v>13</v>
-      </c>
-      <c r="L29" s="6">
-        <v>1950</v>
-      </c>
-      <c r="M29" s="6">
-        <v>2210</v>
-      </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6">
-        <v>6</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6">
-        <v>5</v>
-      </c>
-      <c r="S29" s="6">
-        <v>3</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U29" s="8">
-        <v>13</v>
-      </c>
-      <c r="V29" s="8">
-        <v>1950</v>
-      </c>
-      <c r="W29" s="8">
-        <v>2210</v>
-      </c>
-      <c r="X29" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="4">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2210</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2590</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4">
-        <v>200</v>
-      </c>
-      <c r="G30" s="4">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K30" s="6">
-        <v>14</v>
-      </c>
-      <c r="L30" s="6">
-        <v>2210</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2590</v>
-      </c>
-      <c r="N30" s="6">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6">
-        <v>5</v>
-      </c>
-      <c r="P30" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>8</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U30" s="8">
-        <v>14</v>
-      </c>
-      <c r="V30" s="8">
-        <v>2210</v>
-      </c>
-      <c r="W30" s="8">
-        <v>2590</v>
-      </c>
-      <c r="X30" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>8</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="4">
-        <v>15</v>
-      </c>
-      <c r="B31" s="4">
-        <v>2590</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3090</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="6">
-        <v>15</v>
-      </c>
-      <c r="L31" s="6">
-        <v>2590</v>
-      </c>
-      <c r="M31" s="6">
-        <v>3090</v>
-      </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6">
-        <v>3</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>10000</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U31" s="8">
-        <v>15</v>
-      </c>
-      <c r="V31" s="8">
-        <v>2590</v>
-      </c>
-      <c r="W31" s="8">
-        <v>3090</v>
-      </c>
-      <c r="X31" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>10000</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="4">
-        <v>16</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3090</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3470</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>6</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4">
-        <v>3</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="6">
-        <v>16</v>
-      </c>
-      <c r="L32" s="6">
-        <v>3090</v>
-      </c>
-      <c r="M32" s="6">
-        <v>3470</v>
-      </c>
-      <c r="N32" s="6">
-        <v>1</v>
-      </c>
-      <c r="O32" s="6">
-        <v>6</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6">
-        <v>5</v>
-      </c>
-      <c r="S32" s="6">
-        <v>3</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U32" s="8">
-        <v>16</v>
-      </c>
-      <c r="V32" s="8">
-        <v>3090</v>
-      </c>
-      <c r="W32" s="8">
-        <v>3470</v>
-      </c>
-      <c r="X32" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
-      <c r="A33" s="4">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3470</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4010</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4">
-        <v>200</v>
-      </c>
-      <c r="G33" s="4">
-        <v>9</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="6">
-        <v>17</v>
-      </c>
-      <c r="L33" s="6">
-        <v>3470</v>
-      </c>
-      <c r="M33" s="6">
-        <v>4010</v>
-      </c>
-      <c r="N33" s="6">
-        <v>1</v>
-      </c>
-      <c r="O33" s="6">
-        <v>5</v>
-      </c>
-      <c r="P33" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>9</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U33" s="8">
-        <v>17</v>
-      </c>
-      <c r="V33" s="8">
-        <v>3470</v>
-      </c>
-      <c r="W33" s="8">
-        <v>4010</v>
-      </c>
-      <c r="X33" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>9</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
-      <c r="A34" s="4">
-        <v>18</v>
-      </c>
-      <c r="B34" s="4">
-        <v>4010</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4710</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>15000</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="6">
-        <v>18</v>
-      </c>
-      <c r="L34" s="6">
-        <v>4010</v>
-      </c>
-      <c r="M34" s="6">
-        <v>4710</v>
-      </c>
-      <c r="N34" s="6">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6">
-        <v>3</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>15000</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U34" s="8">
-        <v>18</v>
-      </c>
-      <c r="V34" s="8">
-        <v>4010</v>
-      </c>
-      <c r="W34" s="8">
-        <v>4710</v>
-      </c>
-      <c r="X34" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>15000</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
-      <c r="A35" s="4">
-        <v>19</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4710</v>
-      </c>
-      <c r="C35" s="4">
-        <v>5250</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>5</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="6">
-        <v>19</v>
-      </c>
-      <c r="L35" s="6">
-        <v>4710</v>
-      </c>
-      <c r="M35" s="6">
-        <v>5250</v>
-      </c>
-      <c r="N35" s="6">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6">
-        <v>6</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6">
-        <v>5</v>
-      </c>
-      <c r="S35" s="6">
-        <v>3</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U35" s="8">
-        <v>19</v>
-      </c>
-      <c r="V35" s="8">
-        <v>4710</v>
-      </c>
-      <c r="W35" s="8">
-        <v>5250</v>
-      </c>
-      <c r="X35" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="8">
-        <v>3</v>
-      </c>
-      <c r="AD35" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
-      <c r="A36" s="4">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5250</v>
-      </c>
-      <c r="C36" s="4">
-        <v>6000</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>200</v>
-      </c>
-      <c r="G36" s="4">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="6">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6">
-        <v>5250</v>
-      </c>
-      <c r="M36" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N36" s="6">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6">
-        <v>5</v>
-      </c>
-      <c r="P36" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>10</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="6">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U36" s="8">
-        <v>20</v>
-      </c>
-      <c r="V36" s="8">
-        <v>5250</v>
-      </c>
-      <c r="W36" s="8">
-        <v>6000</v>
-      </c>
-      <c r="X36" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>200</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>10</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" s="4">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4">
-        <v>6000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>6960</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="Z37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="7">
         <v>20000</v>
       </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="6">
-        <v>21</v>
-      </c>
-      <c r="L37" s="6">
-        <v>6000</v>
-      </c>
-      <c r="M37" s="6">
-        <v>6960</v>
-      </c>
-      <c r="N37" s="6">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6">
-        <v>3</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>20000</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="U37" s="8">
-        <v>21</v>
-      </c>
-      <c r="V37" s="8">
-        <v>6000</v>
-      </c>
-      <c r="W37" s="8">
-        <v>6960</v>
-      </c>
-      <c r="X37" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>20000</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="9" t="s">
+      <c r="AB37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3501,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K60" s="1">
         <v>3</v>
@@ -3522,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U60" s="1">
         <v>3</v>
@@ -3543,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -3566,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K61" s="1">
         <v>6</v>
@@ -3587,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U61" s="1">
         <v>6</v>
@@ -3608,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -3631,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K62" s="1">
         <v>9</v>
@@ -3652,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U62" s="1">
         <v>9</v>
@@ -3673,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -3696,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K63" s="1">
         <v>12</v>
@@ -3717,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U63" s="1">
         <v>12</v>
@@ -3738,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -3761,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K64" s="1">
         <v>15</v>
@@ -3782,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U64" s="1">
         <v>15</v>
@@ -3803,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -3826,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K65" s="1">
         <v>18</v>
@@ -3847,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U65" s="1">
         <v>18</v>
@@ -3868,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -3891,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K66" s="1">
         <v>21</v>
@@ -3912,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U66" s="1">
         <v>21</v>
@@ -3933,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -4026,13 +4021,13 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-      <c r="O78" s="14" t="s">
+      <c r="O78" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1" t="s">
@@ -4095,7 +4090,7 @@
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -4154,7 +4149,7 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -4213,7 +4208,7 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1">
         <v>201791</v>
@@ -4227,7 +4222,7 @@
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B83" s="1">
         <v>201792</v>
@@ -4241,7 +4236,7 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1">
         <v>201793</v>
@@ -4255,7 +4250,7 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1">
         <v>201794</v>
@@ -4269,7 +4264,7 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1">
         <v>201795</v>
@@ -4286,7 +4281,7 @@
         <v>66</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4355,7 +4350,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4372,7 +4367,7 @@
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="13"/>
+      <c r="A99" s="17"/>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
@@ -4387,122 +4382,122 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4544,8 +4539,8 @@
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4587,8 +4582,8 @@
       </c>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
@@ -4630,8 +4625,8 @@
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
@@ -4673,8 +4668,8 @@
       </c>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="1" t="s">
         <v>45</v>
       </c>
@@ -4716,8 +4711,8 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="1" t="s">
         <v>46</v>
       </c>
@@ -4759,8 +4754,8 @@
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="19" customHeight="1">
@@ -4818,7 +4813,7 @@
         <v>51</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="19" customHeight="1">
@@ -4827,7 +4822,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="19" customHeight="1">
@@ -4847,7 +4842,7 @@
         <v>55</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -4856,7 +4851,7 @@
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -4865,7 +4860,7 @@
         <v>57</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="20" customHeight="1">
@@ -4901,220 +4896,220 @@
     </row>
     <row r="133" spans="1:5">
       <c r="D133" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="18" t="s">
-        <v>107</v>
+      <c r="A136" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="11"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="18"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="18"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="18"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="18"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="18"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="18"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="18"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="12"/>
-      <c r="C143" s="18"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="18"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="12"/>
-      <c r="C144" s="18"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="18"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>102</v>
+      <c r="C145" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="18"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="12"/>
-      <c r="C146" s="18"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E146" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="18"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="12"/>
-      <c r="C147" s="18"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="19" customHeight="1">
-      <c r="A148" s="18"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="12"/>
-      <c r="C148" s="18" t="s">
-        <v>126</v>
+      <c r="C148" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="18"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="12"/>
-      <c r="C149" s="18"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E149" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="18"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="12"/>
-      <c r="C150" s="18"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="18"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="12"/>
-      <c r="C151" s="18" t="s">
-        <v>106</v>
+      <c r="C151" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="18"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="12"/>
-      <c r="C152" s="18"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E152" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="18"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="12"/>
-      <c r="C153" s="18"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5122,15 +5117,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A136:A153"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="B145:B153"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="O78:S78"/>
+    <mergeCell ref="E77:S77"/>
+    <mergeCell ref="A76:S76"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="K57:P57"/>
@@ -5145,97 +5141,18 @@
     <mergeCell ref="U15:X15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:S78"/>
-    <mergeCell ref="E77:S77"/>
-    <mergeCell ref="A76:S76"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A136:A153"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F52419-D975-C04C-9523-411044453180}">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>